--- a/mbs-perturbation/bloated/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/bloated/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8461538461538461</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6875</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7011834319526626</v>
+        <v>0.4178571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7023809523809524</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5945945945945945</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3898809523809524</v>
+        <v>0.6428571428571428</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.64</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.68</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7647058823529412</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5870769230769232</v>
+        <v>0.5177536231884058</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7254578754578753</v>
+        <v>0.5625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.600624463205599</v>
+        <v>0.3942279942279943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.634213542867389</v>
+        <v>0.4933928571428571</v>
       </c>
     </row>
   </sheetData>
